--- a/Assets/Table/playerDefinitions.xlsx
+++ b/Assets/Table/playerDefinitions.xlsx
@@ -262,7 +262,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topRight" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -304,22 +304,22 @@
         <v>10001</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>8</v>
+        <v>80000</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>25</v>
+        <v>250000</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>5</v>
+        <v>50000</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.3</v>
+        <v>3000</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>10</v>
+        <v>100000</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -328,22 +328,22 @@
         <v>10002</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>5</v>
+        <v>50000</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>10</v>
+        <v>100000</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>10</v>
+        <v>100000</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.5</v>
+        <v>5000</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="H4" s="2"/>
     </row>
